--- a/wp-content/themes/power/templates/file.xlsx
+++ b/wp-content/themes/power/templates/file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Xamp_74\htdocs\new_bitexco\wp-content\themes\power\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8804F44-0046-40FB-AFD6-FBF8A3BB39B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2563AF-BDFD-4868-9CCF-D5811A76C72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,7 +360,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -384,7 +384,7 @@
         <v>210</v>
       </c>
       <c r="C2">
-        <v>1653</v>
+        <v>3653</v>
       </c>
     </row>
   </sheetData>
